--- a/data/reports/W51_2025.xlsx
+++ b/data/reports/W51_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930191E-6716-4610-8AC5-0608FD21934C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3F117-3858-4658-A7F3-F5C4C794BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Campaign (group)</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Awaiting content</t>
   </si>
   <si>
-    <t>COP 2025</t>
-  </si>
-  <si>
     <t>Eden</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>GCMC Design Team Weeky Report</t>
-  </si>
-  <si>
     <t>Chinese Alumni UGC video - Yiliang Zhang</t>
   </si>
   <si>
@@ -111,15 +105,9 @@
     <t>Misc</t>
   </si>
   <si>
-    <t>RMIT Study Expo- January</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t xml:space="preserve"> | 2 Dec - 9 Dec 2025</t>
-  </si>
-  <si>
     <t>Uni acronym challenge</t>
   </si>
   <si>
@@ -132,27 +120,12 @@
     <t>Aussie and international snacks reaction video series</t>
   </si>
   <si>
-    <t>Briefed 5 Dec, waiting for brief completion</t>
-  </si>
-  <si>
-    <t>Sri Lanka Intervention</t>
-  </si>
-  <si>
-    <t>FA/WF sent 5 Dec</t>
-  </si>
-  <si>
     <t>Popmart challenge video</t>
   </si>
   <si>
-    <t>Briefed 2 Dec, due 19 Dec</t>
-  </si>
-  <si>
     <t>Chinese Alumni UGC video - Yiran Zhou</t>
   </si>
   <si>
-    <t>Due 15 Dec</t>
-  </si>
-  <si>
     <t>Sem 1 Career Connect TikTok</t>
   </si>
   <si>
@@ -162,24 +135,12 @@
     <t>Sem 1 PG study tips TikTok</t>
   </si>
   <si>
-    <t>1st draft sent 8 Dec, revision in progress</t>
-  </si>
-  <si>
     <t>Sem 1 PG student IVs short-form videos (x3)</t>
   </si>
   <si>
-    <t>Staggered delivery from 18 Dec to Mid Jan</t>
-  </si>
-  <si>
     <t xml:space="preserve">INTON Christmas and new year design </t>
   </si>
   <si>
-    <t>Meta extra assets</t>
-  </si>
-  <si>
-    <t>Last updated 9 Dec, 00:25 ICT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Admissions V1 edits </t>
   </si>
   <si>
@@ -196,6 +157,54 @@
   </si>
   <si>
     <t>Due 18 Dec</t>
+  </si>
+  <si>
+    <t>1/2 videos in review. Due 19 Dec</t>
+  </si>
+  <si>
+    <t>1st draft sent 15 Dec</t>
+  </si>
+  <si>
+    <t>Due Jan 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | 9 Dec - 16 Dec 2025</t>
+  </si>
+  <si>
+    <t>Last updated 16 Dec, 00:24 ICT</t>
+  </si>
+  <si>
+    <t>GCMC Design Team Weeky Report Ho Ho Ho</t>
+  </si>
+  <si>
+    <t>Updated on Dec 12</t>
+  </si>
+  <si>
+    <t>1/3 videos sent on Dec 16, waiting for review</t>
+  </si>
+  <si>
+    <t>Christmas and New Year flyer – Sri Lanka</t>
+  </si>
+  <si>
+    <t>Danh - Eden</t>
+  </si>
+  <si>
+    <t>RMIT Study Expo- January campaign assets</t>
+  </si>
+  <si>
+    <t>RMIT Study Expo- printed assets</t>
+  </si>
+  <si>
+    <t>1st draft sent 10 Dec, waiting for review</t>
+  </si>
+  <si>
+    <t>RMIT Study Expo</t>
+  </si>
+  <si>
+    <t>Jan Study Expo TikTok</t>
+  </si>
+  <si>
+    <t>Due 8 Jan</t>
   </si>
 </sst>
 </file>
@@ -256,7 +265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +290,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -300,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -329,9 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -695,16 +695,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -726,50 +726,50 @@
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>53</v>
@@ -777,251 +777,271 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
+      <c r="A13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
+      <c r="A18" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H21">
-    <sortCondition ref="C3:C21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H22">
+    <sortCondition ref="C3:C22"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1029,7 +1049,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{E5BFD1E3-D60A-48B7-887F-264F651EBB2F}">
       <formula1>"Very Light,Light,Medium,Med-High,High,Overloaded"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22" xr:uid="{57C0FF5B-A281-498F-B368-FFF48C59A553}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D23" xr:uid="{57C0FF5B-A281-498F-B368-FFF48C59A553}">
       <formula1>"To Do,In Progress,In Review,Done,On-hold"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/reports/W51_2025.xlsx
+++ b/data/reports/W51_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3F117-3858-4658-A7F3-F5C4C794BAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394EF9B-6DB3-4E7B-8731-0EDAEDA3FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Sem 1 PG study tips TikTok</t>
   </si>
   <si>
-    <t>Sem 1 PG student IVs short-form videos (x3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">INTON Christmas and new year design </t>
   </si>
   <si>
@@ -183,18 +180,9 @@
     <t>1/3 videos sent on Dec 16, waiting for review</t>
   </si>
   <si>
-    <t>Christmas and New Year flyer – Sri Lanka</t>
-  </si>
-  <si>
     <t>Danh - Eden</t>
   </si>
   <si>
-    <t>RMIT Study Expo- January campaign assets</t>
-  </si>
-  <si>
-    <t>RMIT Study Expo- printed assets</t>
-  </si>
-  <si>
     <t>1st draft sent 10 Dec, waiting for review</t>
   </si>
   <si>
@@ -205,6 +193,18 @@
   </si>
   <si>
     <t>Due 8 Jan</t>
+  </si>
+  <si>
+    <t>RMIT Study Expo - January campaign assets</t>
+  </si>
+  <si>
+    <t>RMIT Study Expo - printed assets</t>
+  </si>
+  <si>
+    <t>Christmas and New Year flyer - Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sem 1 PG student IVs short - form videos (x3)</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -695,13 +695,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>23</v>
@@ -732,21 +732,21 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -755,15 +755,15 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -772,15 +772,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,16 +797,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -840,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -891,7 +891,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -959,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>5</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>5</v>

--- a/data/reports/W51_2025.xlsx
+++ b/data/reports/W51_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3394EF9B-6DB3-4E7B-8731-0EDAEDA3FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905A25E-EF19-4D79-A73C-40178DBA8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,9 +171,6 @@
     <t>Last updated 16 Dec, 00:24 ICT</t>
   </si>
   <si>
-    <t>GCMC Design Team Weeky Report Ho Ho Ho</t>
-  </si>
-  <si>
     <t>Updated on Dec 12</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Sem 1 PG student IVs short - form videos (x3)</t>
+  </si>
+  <si>
+    <t>Dear Santa, give us presents, not tasks.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -698,7 +698,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>44</v>
@@ -732,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>16</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>9</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>9</v>
@@ -772,15 +772,15 @@
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -789,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -942,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,7 +950,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
@@ -959,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/reports/W51_2025.xlsx
+++ b/data/reports/W51_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905A25E-EF19-4D79-A73C-40178DBA8D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D99951-452A-4F04-AEE3-46F7E73D700A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>Sem 1 PG student IVs short - form videos (x3)</t>
   </si>
   <si>
-    <t>Dear Santa, give us presents, not tasks.</t>
+    <t>Dear Santa: give us presents, not tasks.</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
